--- a/MO.xlsx
+++ b/MO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\1.Finance\Anaylsen\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D790AEB-70D8-4623-B282-0F31F808AF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0250B56-E2B0-457F-84C6-8860B1CE6523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="1950" windowWidth="38175" windowHeight="15240" xr2:uid="{20CEB54E-2453-4B61-AAC7-D7D76D478430}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20925" xr2:uid="{20CEB54E-2453-4B61-AAC7-D7D76D478430}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="143">
   <si>
     <t>Altria Group</t>
   </si>
@@ -620,13 +620,19 @@
     <numFmt numFmtId="167" formatCode="#,##0;\(#,##0\)"/>
     <numFmt numFmtId="168" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -841,52 +847,55 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1239,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A13A8BF-4A3E-4042-9051-F7B6DAB83C04}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1270,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="M3" s="4">
-        <v>58.4</v>
+        <v>66.430000000000007</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -1281,10 +1290,10 @@
         <v>3</v>
       </c>
       <c r="M4" s="6">
-        <v>1684.451818</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>131</v>
+        <v>1679.8909530000001</v>
+      </c>
+      <c r="N4" s="34" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -1296,7 +1305,7 @@
       </c>
       <c r="M5" s="8">
         <f>M4*M3</f>
-        <v>98371.986171199998</v>
+        <v>111595.15600779002</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -1304,10 +1313,10 @@
         <v>5</v>
       </c>
       <c r="M6" s="8">
-        <v>4726</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>131</v>
+        <v>1287</v>
+      </c>
+      <c r="N6" s="34" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -1318,11 +1327,11 @@
         <v>6</v>
       </c>
       <c r="M7" s="8">
-        <f>2631+23428</f>
-        <v>26059</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>131</v>
+        <f>1069+23651</f>
+        <v>24720</v>
+      </c>
+      <c r="N7" s="34" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -1343,7 +1352,7 @@
       </c>
       <c r="M8" s="8">
         <f>M5+M7-M6</f>
-        <v>119704.9861712</v>
+        <v>135028.15600779001</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -1406,13 +1415,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE311886-D4ED-45A3-A6D8-44AFD4D02C3D}">
-  <dimension ref="A2:AQ351"/>
+  <dimension ref="A1:AQ351"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1428,6 +1437,11 @@
     <col min="27" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="C2" s="7" t="s">
         <v>9</v>
@@ -1547,7 +1561,9 @@
       <c r="K4" s="8">
         <v>12978</v>
       </c>
-      <c r="L4" s="8"/>
+      <c r="L4" s="8">
+        <v>14458</v>
+      </c>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="P4" s="8">
@@ -1615,7 +1631,9 @@
       <c r="K5" s="8">
         <v>678</v>
       </c>
-      <c r="L5" s="8"/>
+      <c r="L5" s="8">
+        <v>719</v>
+      </c>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="P5" s="8">
@@ -1683,7 +1701,9 @@
       <c r="K6" s="8">
         <v>548</v>
       </c>
-      <c r="L6" s="8"/>
+      <c r="L6" s="8">
+        <v>889</v>
+      </c>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="P6" s="8">
@@ -1725,7 +1745,7 @@
         <v>33</v>
       </c>
       <c r="C7" s="27">
-        <f t="shared" ref="C7:K7" si="1">SUM(C4:C6)</f>
+        <f t="shared" ref="C7:L7" si="1">SUM(C4:C6)</f>
         <v>18269</v>
       </c>
       <c r="D7" s="27">
@@ -1760,7 +1780,10 @@
         <f t="shared" si="1"/>
         <v>14204</v>
       </c>
-      <c r="L7" s="27"/>
+      <c r="L7" s="27">
+        <f t="shared" si="1"/>
+        <v>16066</v>
+      </c>
       <c r="M7" s="27"/>
       <c r="N7" s="27"/>
       <c r="O7" s="27"/>
@@ -1833,7 +1856,9 @@
       <c r="K8" s="8">
         <v>405</v>
       </c>
-      <c r="L8" s="8"/>
+      <c r="L8" s="8">
+        <v>478</v>
+      </c>
       <c r="M8" s="8"/>
       <c r="N8" s="8"/>
       <c r="P8" s="8">
@@ -1901,7 +1926,9 @@
       <c r="K9" s="8">
         <v>0</v>
       </c>
-      <c r="L9" s="8"/>
+      <c r="L9" s="8">
+        <v>1</v>
+      </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="P9" s="8">
@@ -1943,7 +1970,7 @@
         <v>34</v>
       </c>
       <c r="C10" s="27">
-        <f t="shared" ref="C10:K10" si="3">SUM(C8:C9)</f>
+        <f t="shared" ref="C10:L10" si="3">SUM(C8:C9)</f>
         <v>444</v>
       </c>
       <c r="D10" s="27">
@@ -1978,7 +2005,10 @@
         <f t="shared" si="3"/>
         <v>405</v>
       </c>
-      <c r="L10" s="27"/>
+      <c r="L10" s="27">
+        <f t="shared" si="3"/>
+        <v>479</v>
+      </c>
       <c r="M10" s="27"/>
       <c r="N10" s="27"/>
       <c r="P10" s="27">
@@ -2053,7 +2083,9 @@
       <c r="K11" s="8">
         <v>89.7</v>
       </c>
-      <c r="L11" s="8"/>
+      <c r="L11" s="8">
+        <v>95.9</v>
+      </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="P11" s="8">
@@ -2119,7 +2151,9 @@
       <c r="K12" s="8">
         <v>31.4</v>
       </c>
-      <c r="L12" s="8"/>
+      <c r="L12" s="8">
+        <v>34.200000000000003</v>
+      </c>
       <c r="M12" s="8"/>
       <c r="N12" s="8"/>
       <c r="P12" s="8">
@@ -2185,7 +2219,9 @@
       <c r="K13" s="8">
         <v>39.299999999999997</v>
       </c>
-      <c r="L13" s="8"/>
+      <c r="L13" s="8">
+        <v>52.1</v>
+      </c>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="P13" s="8">
@@ -2251,7 +2287,9 @@
       <c r="K14" s="8">
         <v>15</v>
       </c>
-      <c r="L14" s="8"/>
+      <c r="L14" s="8">
+        <v>16.399999999999999</v>
+      </c>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
       <c r="P14" s="8">
@@ -2291,7 +2329,7 @@
         <v>38</v>
       </c>
       <c r="C15" s="27">
-        <f t="shared" ref="C15:K15" si="5">SUM(C11:C14)</f>
+        <f t="shared" ref="C15:L15" si="5">SUM(C11:C14)</f>
         <v>190.6</v>
       </c>
       <c r="D15" s="27">
@@ -2326,7 +2364,10 @@
         <f t="shared" si="5"/>
         <v>175.39999999999998</v>
       </c>
-      <c r="L15" s="27"/>
+      <c r="L15" s="27">
+        <f t="shared" si="5"/>
+        <v>198.60000000000002</v>
+      </c>
       <c r="M15" s="27"/>
       <c r="N15" s="27"/>
       <c r="P15" s="27">
@@ -2455,7 +2496,9 @@
       <c r="K19" s="28">
         <v>0.45</v>
       </c>
-      <c r="L19" s="28"/>
+      <c r="L19" s="28">
+        <v>0.45200000000000001</v>
+      </c>
       <c r="M19" s="28"/>
       <c r="N19" s="28"/>
       <c r="O19" s="28"/>
@@ -2535,7 +2578,9 @@
       <c r="K20" s="28">
         <v>0.34699999999999998</v>
       </c>
-      <c r="L20" s="28"/>
+      <c r="L20" s="28">
+        <v>0.33100000000000002</v>
+      </c>
       <c r="M20" s="28"/>
       <c r="N20" s="28"/>
       <c r="O20" s="28"/>
@@ -2639,7 +2684,9 @@
       <c r="K22" s="8">
         <v>4622</v>
       </c>
-      <c r="L22" s="8"/>
+      <c r="L22" s="8">
+        <v>5357</v>
+      </c>
       <c r="M22" s="8"/>
       <c r="N22" s="8"/>
       <c r="P22" s="8">
@@ -2712,7 +2759,9 @@
       <c r="K23" s="8">
         <v>654</v>
       </c>
-      <c r="L23" s="8"/>
+      <c r="L23" s="8">
+        <v>753</v>
+      </c>
       <c r="M23" s="8"/>
       <c r="N23" s="8"/>
       <c r="P23" s="8">
@@ -2784,7 +2833,9 @@
       <c r="K24" s="8">
         <v>0</v>
       </c>
-      <c r="L24" s="8"/>
+      <c r="L24" s="8">
+        <v>0</v>
+      </c>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="P24" s="8">
@@ -2857,7 +2908,9 @@
       <c r="K25" s="8">
         <v>-17</v>
       </c>
-      <c r="L25" s="8"/>
+      <c r="L25" s="8">
+        <v>-8</v>
+      </c>
       <c r="M25" s="8"/>
       <c r="N25" s="8"/>
       <c r="P25" s="8">
@@ -2928,7 +2981,9 @@
       <c r="K26" s="27">
         <v>5259</v>
       </c>
-      <c r="L26" s="27"/>
+      <c r="L26" s="27">
+        <v>6102</v>
+      </c>
       <c r="M26" s="27"/>
       <c r="N26" s="27"/>
       <c r="P26" s="27">
@@ -3003,7 +3058,9 @@
       <c r="K27" s="8">
         <v>1270</v>
       </c>
-      <c r="L27" s="8"/>
+      <c r="L27" s="8">
+        <v>1440</v>
+      </c>
       <c r="M27" s="8"/>
       <c r="N27" s="8"/>
       <c r="P27" s="8">
@@ -3074,7 +3131,9 @@
       <c r="K28" s="8">
         <v>740</v>
       </c>
-      <c r="L28" s="8"/>
+      <c r="L28" s="8">
+        <v>812</v>
+      </c>
       <c r="M28" s="8"/>
       <c r="N28" s="8"/>
       <c r="P28" s="8">
@@ -3154,7 +3213,10 @@
         <f t="shared" si="9"/>
         <v>3249</v>
       </c>
-      <c r="L29" s="8"/>
+      <c r="L29" s="8">
+        <f t="shared" si="9"/>
+        <v>3850</v>
+      </c>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="P29" s="8">
@@ -3236,7 +3298,9 @@
         <f>588+873</f>
         <v>1461</v>
       </c>
-      <c r="L30" s="8"/>
+      <c r="L30" s="8">
+        <v>620</v>
+      </c>
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="P30" s="8">
@@ -3309,7 +3373,7 @@
         <v>2533</v>
       </c>
       <c r="I31" s="8">
-        <f t="shared" ref="I31:K31" si="11">I29-I30</f>
+        <f t="shared" ref="I31:L31" si="11">I29-I30</f>
         <v>3152</v>
       </c>
       <c r="J31" s="8">
@@ -3320,7 +3384,10 @@
         <f t="shared" si="11"/>
         <v>1788</v>
       </c>
-      <c r="L31" s="8"/>
+      <c r="L31" s="8">
+        <f t="shared" si="11"/>
+        <v>3230</v>
+      </c>
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="P31" s="8">
@@ -3398,7 +3465,9 @@
       <c r="K32" s="8">
         <v>262</v>
       </c>
-      <c r="L32" s="8"/>
+      <c r="L32" s="8">
+        <v>275</v>
+      </c>
       <c r="M32" s="8"/>
       <c r="N32" s="8"/>
       <c r="P32" s="8">
@@ -3470,7 +3539,9 @@
       <c r="K33" s="8">
         <v>-14</v>
       </c>
-      <c r="L33" s="8"/>
+      <c r="L33" s="8">
+        <v>-15</v>
+      </c>
       <c r="M33" s="8"/>
       <c r="N33" s="8"/>
       <c r="P33" s="8">
@@ -3539,7 +3610,9 @@
       <c r="K34" s="8">
         <v>0</v>
       </c>
-      <c r="L34" s="8"/>
+      <c r="L34" s="8">
+        <v>0</v>
+      </c>
       <c r="M34" s="8"/>
       <c r="N34" s="8"/>
       <c r="P34" s="8">
@@ -3611,7 +3684,9 @@
       <c r="K35" s="8">
         <v>-143</v>
       </c>
-      <c r="L35" s="8"/>
+      <c r="L35" s="8">
+        <v>-148</v>
+      </c>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="P35" s="8">
@@ -3696,7 +3771,10 @@
         <f t="shared" si="19"/>
         <v>1683</v>
       </c>
-      <c r="L36" s="8"/>
+      <c r="L36" s="8">
+        <f t="shared" si="19"/>
+        <v>3118</v>
+      </c>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="P36" s="8">
@@ -3774,7 +3852,9 @@
       <c r="K37" s="8">
         <v>606</v>
       </c>
-      <c r="L37" s="8"/>
+      <c r="L37" s="8">
+        <v>740</v>
+      </c>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="P37" s="8">
@@ -3854,7 +3934,10 @@
         <f t="shared" si="20"/>
         <v>1077</v>
       </c>
-      <c r="L38" s="8"/>
+      <c r="L38" s="8">
+        <f t="shared" si="20"/>
+        <v>2378</v>
+      </c>
       <c r="M38" s="8"/>
       <c r="N38" s="8"/>
       <c r="P38" s="8">
@@ -3962,7 +4045,10 @@
         <f>+K38/K41</f>
         <v>0.63727810650887573</v>
       </c>
-      <c r="L40" s="29"/>
+      <c r="L40" s="29">
+        <f>+L38/L41</f>
+        <v>1.4096028452874927</v>
+      </c>
       <c r="M40" s="29"/>
       <c r="N40" s="29"/>
       <c r="P40" s="29">
@@ -4025,7 +4111,9 @@
       <c r="K41" s="8">
         <v>1690</v>
       </c>
-      <c r="L41" s="8"/>
+      <c r="L41" s="8">
+        <v>1687</v>
+      </c>
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
       <c r="P41" s="8">
@@ -4094,7 +4182,7 @@
       </c>
       <c r="L43" s="30">
         <f t="shared" ref="L43:N43" si="24">+L7/H7-1</f>
-        <v>-1</v>
+        <v>-0.10235780534137895</v>
       </c>
       <c r="M43" s="30">
         <f t="shared" si="24"/>
@@ -4159,7 +4247,7 @@
       </c>
       <c r="L44" s="30">
         <f t="shared" ref="L44:N44" si="27">+L15/H15-1</f>
-        <v>-1</v>
+        <v>-1.0463378176382654E-2</v>
       </c>
       <c r="M44" s="30">
         <f t="shared" si="27"/>
@@ -4224,7 +4312,7 @@
       </c>
       <c r="L45" s="30">
         <f t="shared" ref="L45:N45" si="30">+L22/H22-1</f>
-        <v>-1</v>
+        <v>-2.5113739763421239E-2</v>
       </c>
       <c r="M45" s="30">
         <f t="shared" si="30"/>
@@ -4289,7 +4377,7 @@
       </c>
       <c r="L46" s="30">
         <f t="shared" ref="L46:N46" si="33">+L23/H23-1</f>
-        <v>-1</v>
+        <v>5.9071729957805852E-2</v>
       </c>
       <c r="M46" s="30">
         <f t="shared" si="33"/>
@@ -4354,7 +4442,7 @@
       </c>
       <c r="L47" s="32">
         <f t="shared" ref="L47:N47" si="35">+L26/H26-1</f>
-        <v>-1</v>
+        <v>-1.7233048800128881E-2</v>
       </c>
       <c r="M47" s="32">
         <f t="shared" si="35"/>
@@ -4431,9 +4519,9 @@
         <f t="shared" si="37"/>
         <v>0.61779806046776953</v>
       </c>
-      <c r="L48" s="30" t="e">
+      <c r="L48" s="30">
         <f t="shared" ref="L48:N48" si="38">L29/L26</f>
-        <v>#DIV/0!</v>
+        <v>0.63094067518846275</v>
       </c>
       <c r="M48" s="30" t="e">
         <f t="shared" si="38"/>
@@ -4512,9 +4600,9 @@
         <f t="shared" si="40"/>
         <v>0.33998859098687961</v>
       </c>
-      <c r="L49" s="30" t="e">
+      <c r="L49" s="30">
         <f t="shared" ref="L49:N49" si="41">L31/L26</f>
-        <v>#DIV/0!</v>
+        <v>0.52933464437889222</v>
       </c>
       <c r="M49" s="30" t="e">
         <f t="shared" si="41"/>
@@ -4593,9 +4681,9 @@
         <f>Model!K38/Model!K26</f>
         <v>0.20479178551055333</v>
       </c>
-      <c r="L50" s="30" t="e">
+      <c r="L50" s="30">
         <f>Model!L38/Model!L26</f>
-        <v>#DIV/0!</v>
+        <v>0.38970829236315963</v>
       </c>
       <c r="M50" s="30" t="e">
         <f>Model!M38/Model!M26</f>
@@ -4674,9 +4762,9 @@
         <f t="shared" si="43"/>
         <v>0.36007130124777181</v>
       </c>
-      <c r="L51" s="30" t="e">
+      <c r="L51" s="30">
         <f t="shared" ref="L51:N51" si="44">L37/L36</f>
-        <v>#DIV/0!</v>
+        <v>0.23733162283515075</v>
       </c>
       <c r="M51" s="30" t="e">
         <f t="shared" si="44"/>
@@ -14359,6 +14447,9 @@
       <c r="N351" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{EC6E0C3A-C4F2-41C8-A841-D3FAF8AACF03}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
